--- a/r5-ELGA-MOPED-main/StructureDefinition-ecard-anspruch-rezeptgebbefreit.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-ecard-anspruch-rezeptgebbefreit.xlsx
@@ -131,7 +131,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:http://example.org/StructureDefinition/MOPEDCoverage#Coverage</t>
+    <t>element:http://example.org/StructureDefinition/SVCCoverage#Coverage</t>
   </si>
   <si>
     <t>ID</t>
